--- a/biology/Zoologie/Acanthurus_coeruleus/Acanthurus_coeruleus.xlsx
+++ b/biology/Zoologie/Acanthurus_coeruleus/Acanthurus_coeruleus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthurus coeruleus ou chirurgien bayolle ou encore poisson chirurgien bleu est un poisson présent dans les eaux de l'ouest de l'Atlantique.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les juvéniles Acanthurus coeruleus sont jaunes. Leur couleur varie ensuite au fil de leur croissance. Les subadultes sont bleus ou violacé-grisâtre avec une queue jaune et des flancs barrés de lignes longitudinales grises. Les adultes sont complètement bleus ou bleu-violacés. Pendant la nuit, les nageoires restent bleues et le corps devient noir orné de 4 lignes blanches horizontales[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les juvéniles Acanthurus coeruleus sont jaunes. Leur couleur varie ensuite au fil de leur croissance. Les subadultes sont bleus ou violacé-grisâtre avec une queue jaune et des flancs barrés de lignes longitudinales grises. Les adultes sont complètement bleus ou bleu-violacés. Pendant la nuit, les nageoires restent bleues et le corps devient noir orné de 4 lignes blanches horizontales.
 Cette espèce mesure une taille maximale connue de 40 cm.
 			juvénile
 			stade intermédiaire
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve ces poissons en Floride, aux Bahamas et d'autres lieux de la mer des Caraïbes comme Bonaire. On les rencontre aussi à Belize et plus particulièrement à Ambergris Caye, dans le golfe du Mexique, dans le sud du Brésil et au nord de New York.
 </t>
@@ -577,9 +593,11 @@
           <t>Statut UICN</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de Acanthuridae est classé Préoccupation mineur (LC) sur la liste rouge des espèces menacées UICN du fait de sa zone de répartition relativement grande, largement distribué dans l'Atlantique. Il se rencontre de toutes tailles et est présent dans de nombreuses zones marines protégées[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de Acanthuridae est classé Préoccupation mineur (LC) sur la liste rouge des espèces menacées UICN du fait de sa zone de répartition relativement grande, largement distribué dans l'Atlantique. Il se rencontre de toutes tailles et est présent dans de nombreuses zones marines protégées.
 </t>
         </is>
       </c>
